--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3493.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3493.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8513704448709369</v>
+        <v>1.878652691841125</v>
       </c>
       <c r="B1">
-        <v>1.427538843294314</v>
+        <v>3.532402992248535</v>
       </c>
       <c r="C1">
-        <v>4.659584124661889</v>
+        <v>3.150560617446899</v>
       </c>
       <c r="D1">
-        <v>5.242590401953537</v>
+        <v>2.573280572891235</v>
       </c>
       <c r="E1">
-        <v>1.957097262388713</v>
+        <v>1.655121564865112</v>
       </c>
     </row>
   </sheetData>
